--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -582,7 +582,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -730,7 +730,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -762,7 +762,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fire, Flying</t>
+          <t>['Fire', 'Flying']</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Water, Electric, Rock</t>
+          <t>['Water', 'Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>['Bug']</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fire, Flying, Rock</t>
+          <t>['Fire', 'Flying', 'Rock']</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>['Bug']</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fire, Flying, Rock</t>
+          <t>['Fire', 'Flying', 'Rock']</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bug, Flying</t>
+          <t>['Bug', 'Flying']</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Fire, Electric, Ice, Flying, Rock</t>
+          <t>['Fire', 'Electric', 'Ice', 'Flying', 'Rock']</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bug, Poison</t>
+          <t>['Bug', 'Poison']</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Fire, Flying, Psychic, Rock</t>
+          <t>['Fire', 'Flying', 'Psychic', 'Rock']</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bug, Poison</t>
+          <t>['Bug', 'Poison']</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Fire, Flying, Psychic, Rock</t>
+          <t>['Fire', 'Flying', 'Psychic', 'Rock']</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bug, Poison</t>
+          <t>['Bug', 'Poison']</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fire, Flying, Psychic, Rock</t>
+          <t>['Fire', 'Flying', 'Psychic', 'Rock']</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Normal, Flying</t>
+          <t>['Normal', 'Flying']</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Normal, Flying</t>
+          <t>['Normal', 'Flying']</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Normal, Flying</t>
+          <t>['Normal', 'Flying']</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Normal, Flying</t>
+          <t>['Normal', 'Flying']</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Normal, Flying</t>
+          <t>['Normal', 'Flying']</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>['Electric']</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>['Electric']</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice</t>
+          <t>['Water', 'Grass', 'Ice']</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice</t>
+          <t>['Water', 'Grass', 'Ice']</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Poison, Ground</t>
+          <t>['Poison', 'Ground']</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Water, Ice, Ground, Psychic</t>
+          <t>['Water', 'Ice', 'Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Poison, Ground</t>
+          <t>['Poison', 'Ground']</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Water, Ice, Ground, Psychic</t>
+          <t>['Water', 'Ice', 'Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Poison, Flying</t>
+          <t>['Poison', 'Flying']</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Electric, Ice, Psychic, Rock</t>
+          <t>['Electric', 'Ice', 'Psychic', 'Rock']</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Poison, Flying</t>
+          <t>['Poison', 'Flying']</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Electric, Ice, Psychic, Rock</t>
+          <t>['Electric', 'Ice', 'Psychic', 'Rock']</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bug, Grass</t>
+          <t>['Bug', 'Grass']</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Fire, Ice, Poison, Flying, Bug, Rock</t>
+          <t>['Fire', 'Ice', 'Poison', 'Flying', 'Bug', 'Rock']</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bug, Grass</t>
+          <t>['Bug', 'Grass']</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Fire, Ice, Poison, Flying, Bug, Rock</t>
+          <t>['Fire', 'Ice', 'Poison', 'Flying', 'Bug', 'Rock']</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bug, Poison</t>
+          <t>['Bug', 'Poison']</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Fire, Flying, Psychic, Rock</t>
+          <t>['Fire', 'Flying', 'Psychic', 'Rock']</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bug, Poison</t>
+          <t>['Bug', 'Poison']</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Fire, Flying, Psychic, Rock</t>
+          <t>['Fire', 'Flying', 'Psychic', 'Rock']</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice</t>
+          <t>['Water', 'Grass', 'Ice']</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice</t>
+          <t>['Water', 'Grass', 'Ice']</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Flying, Psychic, Fairy</t>
+          <t>['Flying', 'Psychic', 'Fairy']</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Flying, Psychic, Fairy</t>
+          <t>['Flying', 'Psychic', 'Fairy']</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Water, Fighting</t>
+          <t>['Water', 'Fighting']</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Electric, Grass, Flying, Psychic, Fairy</t>
+          <t>['Electric', 'Grass', 'Flying', 'Psychic', 'Fairy']</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>['Psychic']</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bug, Ghost, Dark</t>
+          <t>['Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>['Psychic']</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Bug, Ghost, Dark</t>
+          <t>['Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>['Psychic']</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bug, Ghost, Dark</t>
+          <t>['Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Flying, Psychic, Fairy</t>
+          <t>['Flying', 'Psychic', 'Fairy']</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Flying, Psychic, Fairy</t>
+          <t>['Flying', 'Psychic', 'Fairy']</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Flying, Psychic, Fairy</t>
+          <t>['Flying', 'Psychic', 'Fairy']</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Grass, Poison</t>
+          <t>['Grass', 'Poison']</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Fire, Ice, Flying, Psychic</t>
+          <t>['Fire', 'Ice', 'Flying', 'Psychic']</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Water, Poison</t>
+          <t>['Water', 'Poison']</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Electric, Ground, Psychic</t>
+          <t>['Electric', 'Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Water, Poison</t>
+          <t>['Water', 'Poison']</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Electric, Ground, Psychic</t>
+          <t>['Electric', 'Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rock, Ground</t>
+          <t>['Rock', 'Ground']</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
+          <t>['Water', 'Grass', 'Ice', 'Fighting', 'Ground', 'Steel']</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rock, Ground</t>
+          <t>['Rock', 'Ground']</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
+          <t>['Water', 'Grass', 'Ice', 'Fighting', 'Ground', 'Steel']</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rock, Ground</t>
+          <t>['Rock', 'Ground']</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
+          <t>['Water', 'Grass', 'Ice', 'Fighting', 'Ground', 'Steel']</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Water, Psychic</t>
+          <t>['Water', 'Psychic']</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Electric, Grass, Bug, Ghost, Dark</t>
+          <t>['Electric', 'Grass', 'Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Water, Psychic</t>
+          <t>['Water', 'Psychic']</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Electric, Grass, Bug, Ghost, Dark</t>
+          <t>['Electric', 'Grass', 'Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>['Electric']</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Fire, Water, Ground</t>
+          <t>['Fire', 'Water', 'Ground']</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>['Electric']</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Fire, Water, Ground</t>
+          <t>['Fire', 'Water', 'Ground']</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Normal, Flying</t>
+          <t>['Normal', 'Flying']</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Normal, Flying</t>
+          <t>['Normal', 'Flying']</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Normal, Flying</t>
+          <t>['Normal', 'Flying']</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Water, Ice</t>
+          <t>['Water', 'Ice']</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Electric, Grass, Fighting, Rock</t>
+          <t>['Electric', 'Grass', 'Fighting', 'Rock']</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Water, Ice</t>
+          <t>['Water', 'Ice']</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Electric, Grass, Fighting, Rock</t>
+          <t>['Electric', 'Grass', 'Fighting', 'Rock']</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ghost, Poison</t>
+          <t>['Ghost', 'Poison']</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Ground, Psychic, Ghost, Dark</t>
+          <t>['Ground', 'Psychic', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ghost, Poison</t>
+          <t>['Ghost', 'Poison']</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Ground, Psychic, Ghost, Dark</t>
+          <t>['Ground', 'Psychic', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ghost, Poison</t>
+          <t>['Ghost', 'Poison']</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Ground, Psychic, Ghost, Dark</t>
+          <t>['Ground', 'Psychic', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr"/>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rock, Ground</t>
+          <t>['Rock', 'Ground']</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
+          <t>['Water', 'Grass', 'Ice', 'Fighting', 'Ground', 'Steel']</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr"/>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>['Psychic']</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Bug, Ghost, Dark</t>
+          <t>['Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>['Psychic']</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Bug, Ghost, Dark</t>
+          <t>['Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>['Electric']</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>['Electric']</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr"/>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Grass, Psychic</t>
+          <t>['Grass', 'Psychic']</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Fire, Ice, Poison, Flying, Bug, Ghost, Dark</t>
+          <t>['Fire', 'Ice', 'Poison', 'Flying', 'Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Grass, Psychic</t>
+          <t>['Grass', 'Psychic']</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Fire, Ice, Poison, Flying, Bug, Ghost, Dark</t>
+          <t>['Fire', 'Ice', 'Poison', 'Flying', 'Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr"/>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice</t>
+          <t>['Water', 'Grass', 'Ice']</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice</t>
+          <t>['Water', 'Grass', 'Ice']</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr"/>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Flying, Psychic, Fairy</t>
+          <t>['Flying', 'Psychic', 'Fairy']</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Flying, Psychic, Fairy</t>
+          <t>['Flying', 'Psychic', 'Fairy']</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr"/>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>['Poison']</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Ground, Psychic</t>
+          <t>['Ground', 'Psychic']</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ground, Rock</t>
+          <t>['Ground', 'Rock']</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
+          <t>['Water', 'Grass', 'Ice', 'Fighting', 'Ground', 'Steel']</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -8574,7 +8574,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ground, Rock</t>
+          <t>['Ground', 'Rock']</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
+          <t>['Water', 'Grass', 'Ice', 'Fighting', 'Ground', 'Steel']</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr"/>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>['Grass']</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Fire, Ice, Poison, Flying, Bug</t>
+          <t>['Fire', 'Ice', 'Poison', 'Flying', 'Bug']</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr"/>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr"/>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr"/>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr"/>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -9210,7 +9210,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Water, Psychic</t>
+          <t>['Water', 'Psychic']</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Electric, Grass, Bug, Ghost, Dark</t>
+          <t>['Electric', 'Grass', 'Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr"/>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>['Psychic']</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Bug, Ghost, Dark</t>
+          <t>['Bug', 'Ghost', 'Dark']</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Bug, Flying</t>
+          <t>['Bug', 'Flying']</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>Fire, Electric, Ice, Flying, Rock</t>
+          <t>['Fire', 'Electric', 'Ice', 'Flying', 'Rock']</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr"/>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Ice, Psychic</t>
+          <t>['Ice', 'Psychic']</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Fire, Bug, Rock, Ghost, Dark, Steel</t>
+          <t>['Fire', 'Bug', 'Rock', 'Ghost', 'Dark', 'Steel']</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr"/>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>['Electric']</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr"/>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -9594,7 +9594,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr"/>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>['Bug']</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Fire, Flying, Rock</t>
+          <t>['Fire', 'Flying', 'Rock']</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr"/>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Water, Flying</t>
+          <t>['Water', 'Flying']</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Electric, Rock</t>
+          <t>['Electric', 'Rock']</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr"/>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Water, Ice</t>
+          <t>['Water', 'Ice']</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Electric, Grass, Fighting, Rock</t>
+          <t>['Electric', 'Grass', 'Fighting', 'Rock']</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr"/>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>['Water']</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Electric, Grass</t>
+          <t>['Electric', 'Grass']</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr"/>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>['Electric']</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>['Ground']</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>['Fire']</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>Water, Ground, Rock</t>
+          <t>['Water', 'Ground', 'Rock']</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr"/>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Rock, Water</t>
+          <t>['Rock', 'Water']</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Electric, Grass, Fighting, Ground</t>
+          <t>['Electric', 'Grass', 'Fighting', 'Ground']</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Rock, Water</t>
+          <t>['Rock', 'Water']</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Electric, Grass, Fighting, Ground</t>
+          <t>['Electric', 'Grass', 'Fighting', 'Ground']</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr"/>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Rock, Water</t>
+          <t>['Rock', 'Water']</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Electric, Grass, Fighting, Ground</t>
+          <t>['Electric', 'Grass', 'Fighting', 'Ground']</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Rock, Water</t>
+          <t>['Rock', 'Water']</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Electric, Grass, Fighting, Ground</t>
+          <t>['Electric', 'Grass', 'Fighting', 'Ground']</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr"/>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Rock, Flying</t>
+          <t>['Rock', 'Flying']</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>Water, Electric, Ice, Rock, Steel</t>
+          <t>['Water', 'Electric', 'Ice', 'Rock', 'Steel']</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr"/>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>['Normal']</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>['Fighting']</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>['Dragon']</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>Ice, Dragon, Fairy</t>
+          <t>['Ice', 'Dragon', 'Fairy']</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>['Dragon']</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>Ice, Dragon, Fairy</t>
+          <t>['Ice', 'Dragon', 'Fairy']</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Dragon, Flying</t>
+          <t>['Dragon', 'Flying']</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -10938,7 +10938,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Ice, Rock, Dragon, Fairy</t>
+          <t>['Ice', 'Rock', 'Dragon', 'Fairy']</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr"/>
